--- a/Modelos em Python/0 dias a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros validação.xlsx
+++ b/Modelos em Python/0 dias a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros validação.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3778441990577958</v>
+        <v>0.405271857380017</v>
       </c>
       <c r="C11" t="n">
-        <v>1.348712756280231</v>
+        <v>1.415083289487299</v>
       </c>
       <c r="D11" t="n">
-        <v>2.176108568603544</v>
+        <v>2.734933840636226</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/0 dias a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros validação.xlsx
+++ b/Modelos em Python/0 dias a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros validação.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.405271857380017</v>
+        <v>0.3968021313919992</v>
       </c>
       <c r="C11" t="n">
-        <v>1.415083289487299</v>
+        <v>1.380870462048273</v>
       </c>
       <c r="D11" t="n">
-        <v>2.734933840636226</v>
+        <v>2.377611516581244</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/0 dias a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros validação.xlsx
+++ b/Modelos em Python/0 dias a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros validação.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.128533656075402</v>
+        <v>0.07128533656075402</v>
       </c>
       <c r="C2" t="n">
-        <v>25.37876561013701</v>
+        <v>0.2537876561013701</v>
       </c>
       <c r="D2" t="n">
-        <v>31.13946592758282</v>
+        <v>0.3113946592758282</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.28363165459342</v>
+        <v>0.1028363165459342</v>
       </c>
       <c r="C3" t="n">
-        <v>37.73192003430772</v>
+        <v>0.3773192003430772</v>
       </c>
       <c r="D3" t="n">
-        <v>48.26547346895919</v>
+        <v>0.4826547346895919</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.668971854109127</v>
+        <v>0.06668971854109128</v>
       </c>
       <c r="C4" t="n">
-        <v>23.78125533327422</v>
+        <v>0.2378125533327422</v>
       </c>
       <c r="D4" t="n">
-        <v>29.25258725283565</v>
+        <v>0.2925258725283565</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.226977032299114</v>
+        <v>0.07226977032299114</v>
       </c>
       <c r="C5" t="n">
-        <v>26.09790226409995</v>
+        <v>0.2609790226409995</v>
       </c>
       <c r="D5" t="n">
-        <v>31.74389165488127</v>
+        <v>0.3174389165488127</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.442736915538622</v>
+        <v>0.06442736915538622</v>
       </c>
       <c r="C6" t="n">
-        <v>23.33751519918893</v>
+        <v>0.2333751519918893</v>
       </c>
       <c r="D6" t="n">
-        <v>28.50043749483737</v>
+        <v>0.2850043749483737</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.975445933559897</v>
+        <v>0.08975445933559896</v>
       </c>
       <c r="C7" t="n">
-        <v>33.24213717342894</v>
+        <v>0.3324213717342894</v>
       </c>
       <c r="D7" t="n">
-        <v>50.21536577365653</v>
+        <v>0.5021536577365653</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.2317010242896</v>
+        <v>0.102317010242896</v>
       </c>
       <c r="C8" t="n">
-        <v>37.55287227452936</v>
+        <v>0.3755287227452936</v>
       </c>
       <c r="D8" t="n">
-        <v>48.31488129248892</v>
+        <v>0.4831488129248892</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.45322074293958</v>
+        <v>0.1045322074293958</v>
       </c>
       <c r="C9" t="n">
-        <v>38.54177705922805</v>
+        <v>0.3854177705922804</v>
       </c>
       <c r="D9" t="n">
-        <v>50.89273434455189</v>
+        <v>0.5089273434455189</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20.72580422056718</v>
+        <v>0.2072580422056718</v>
       </c>
       <c r="C10" t="n">
-        <v>97.75677777327554</v>
+        <v>0.9775677777327554</v>
       </c>
       <c r="D10" t="n">
-        <v>98.01677430176881</v>
+        <v>0.9801677430176881</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3968021313919992</v>
+        <v>0.003363378293061425</v>
       </c>
       <c r="C11" t="n">
-        <v>1.380870462048273</v>
+        <v>0.01201315208173842</v>
       </c>
       <c r="D11" t="n">
-        <v>2.377611516581244</v>
+        <v>0.01894206691921034</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01241872184046703</v>
+        <v>0.0001241872184046703</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04683454441868198</v>
+        <v>0.0004683454441868199</v>
       </c>
       <c r="D12" t="n">
-        <v>0.06061010048578478</v>
+        <v>0.0006061010048578478</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5749000868837024</v>
+        <v>0.005749000868837024</v>
       </c>
       <c r="C13" t="n">
-        <v>2.162873393346867</v>
+        <v>0.02162873393346867</v>
       </c>
       <c r="D13" t="n">
-        <v>2.609106126940768</v>
+        <v>0.02609106126940768</v>
       </c>
     </row>
   </sheetData>
